--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_1.xlsx
@@ -518,551 +518,551 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_8</t>
+          <t>model_24_1_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999033987919751</v>
+        <v>0.9998687126047537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991344881249093</v>
+        <v>0.9990876715478416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9997377205784136</v>
+        <v>0.9998659983067801</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999276682424219</v>
+        <v>0.9995137139158595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998463766225065</v>
+        <v>0.9996575497618936</v>
       </c>
       <c r="G2" t="n">
-        <v>9.017298738824821e-05</v>
+        <v>0.0001225510206117532</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008079173438166191</v>
+        <v>0.0008516185634991247</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000213630856197966</v>
+        <v>0.0001031256181545205</v>
       </c>
       <c r="J2" t="n">
-        <v>7.153072563142462e-05</v>
+        <v>0.0006357543810477505</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001425807909146953</v>
+        <v>0.0003694399996011355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001087934350262483</v>
+        <v>0.0008384675918457431</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009495945839580605</v>
+        <v>0.01107027644694356</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000136378176035</v>
+        <v>1.000185346910936</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009900207913289334</v>
+        <v>0.01154156103392135</v>
       </c>
       <c r="P2" t="n">
-        <v>100.6275613007572</v>
+        <v>100.0139662397991</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6014701203534</v>
+        <v>149.9878750593953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_7</t>
+          <t>model_24_1_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998887956459541</v>
+        <v>0.99986835755055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991339843498863</v>
+        <v>0.9990866542587478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997314537069639</v>
+        <v>0.999861150225293</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999140651406004</v>
+        <v>0.999519808988827</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998363795627709</v>
+        <v>0.9996595137197609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001038043831948328</v>
+        <v>0.0001228824481258575</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000808387595687528</v>
+        <v>0.0008525681582144254</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002187353249564278</v>
+        <v>0.0001068566262352057</v>
       </c>
       <c r="J3" t="n">
-        <v>8.498318104929514e-05</v>
+        <v>0.0006277858837613928</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001518592530028615</v>
+        <v>0.0003673212549982993</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001176282282547643</v>
+        <v>0.0008615127684131056</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01018844361003352</v>
+        <v>0.01108523559180668</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000156994382182</v>
+        <v>1.000185848163929</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01062218674749843</v>
+        <v>0.011557157020551</v>
       </c>
       <c r="P3" t="n">
-        <v>100.346004721627</v>
+        <v>100.0085647317283</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.3199135412232</v>
+        <v>149.9824735513245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_9</t>
+          <t>model_24_1_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999145298661295</v>
+        <v>0.9998677464077596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991319129083086</v>
+        <v>0.9990853105513023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9997394695976762</v>
+        <v>0.9998556519412553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999377190244806</v>
+        <v>0.9995262635053329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998524987248114</v>
+        <v>0.9996614635597389</v>
       </c>
       <c r="G4" t="n">
-        <v>7.978261826286635e-05</v>
+        <v>0.0001234529230947268</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008103211954745313</v>
+        <v>0.0008538224501328067</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000212206251551797</v>
+        <v>0.0001110880200821825</v>
       </c>
       <c r="J4" t="n">
-        <v>6.159125011053524e-05</v>
+        <v>0.0006193474618528749</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001368987508311661</v>
+        <v>0.0003652177409675287</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00101201998422586</v>
+        <v>0.0008870382050911302</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008932111635154722</v>
+        <v>0.01111093709345557</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000120663718405</v>
+        <v>1.000186710953751</v>
       </c>
       <c r="O4" t="n">
-        <v>0.009312370119483333</v>
+        <v>0.01158395268833452</v>
       </c>
       <c r="P4" t="n">
-        <v>100.8724097869774</v>
+        <v>99.99930132816763</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.8463186065737</v>
+        <v>149.9732101477639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_6</t>
+          <t>model_24_1_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999869537396095</v>
+        <v>0.9998667594005831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991288281151741</v>
+        <v>0.9990835257663101</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997181563440194</v>
+        <v>0.9998493776931322</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998952109101029</v>
+        <v>0.9995328736895648</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998204999470143</v>
+        <v>0.9996632309516039</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001217811140988764</v>
+        <v>0.0001243742509693265</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008132007144588313</v>
+        <v>0.0008554884685800236</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002295662434243203</v>
+        <v>0.0001159165838159704</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001036286119619145</v>
+        <v>0.0006107055250958726</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001665974276931174</v>
+        <v>0.0003633110544559214</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001295263464486289</v>
+        <v>0.0009154152254126391</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01103544806969234</v>
+        <v>0.01115232042981758</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000184182499631</v>
+        <v>1.000188104375647</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01150524994054588</v>
+        <v>0.01162709779900078</v>
       </c>
       <c r="P5" t="n">
-        <v>100.026570542741</v>
+        <v>99.98443076972165</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.0004793623372</v>
+        <v>149.9583395893179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_10</t>
+          <t>model_24_1_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999229010361987</v>
+        <v>0.9998653391574197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991269859956948</v>
+        <v>0.9990812015330847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999737368256141</v>
+        <v>0.9998422190962901</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999452290878608</v>
+        <v>0.9995397741251255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998555777030078</v>
+        <v>0.999664858784613</v>
       </c>
       <c r="G6" t="n">
-        <v>7.196849845508852e-05</v>
+        <v>0.0001256999856208337</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008149202521329599</v>
+        <v>0.0008576580382739457</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002139178284212942</v>
+        <v>0.0001214257285642283</v>
       </c>
       <c r="J6" t="n">
-        <v>5.416435629367359e-05</v>
+        <v>0.0006016841233286212</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001340410923574839</v>
+        <v>0.0003615549259464247</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009467613219208866</v>
+        <v>0.0009468621912837945</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008483424924821846</v>
+        <v>0.01121160049327632</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000108845595955</v>
+        <v>1.000190109424819</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008844581886982053</v>
+        <v>0.01168890153748761</v>
       </c>
       <c r="P6" t="n">
-        <v>101.0785641122915</v>
+        <v>99.96322511352162</v>
       </c>
       <c r="Q6" t="n">
-        <v>151.0524729318878</v>
+        <v>149.9371339331178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_11</t>
+          <t>model_24_1_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999292167219029</v>
+        <v>0.9998633580146297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999120567634215</v>
+        <v>0.9990781863861077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997329311207405</v>
+        <v>0.9998340050206861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999509955003389</v>
+        <v>0.9995468754111905</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998567016071844</v>
+        <v>0.99966623184948</v>
       </c>
       <c r="G7" t="n">
-        <v>6.60730830767446e-05</v>
+        <v>0.0001275492954532673</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008209115108409844</v>
+        <v>0.0008604725456273636</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002175319473977118</v>
+        <v>0.0001277471533453226</v>
       </c>
       <c r="J7" t="n">
-        <v>4.846180346403421e-05</v>
+        <v>0.0005924001362393211</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001329979754241278</v>
+        <v>0.0003600736447923218</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0008900859450711501</v>
+        <v>0.000981707598812702</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008128535112598371</v>
+        <v>0.0112937724190488</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000099929333784</v>
+        <v>1.000192906332288</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008474583680729036</v>
+        <v>0.01177457169225956</v>
       </c>
       <c r="P7" t="n">
-        <v>101.2494982184382</v>
+        <v>99.93401527416457</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.2234070380344</v>
+        <v>149.9079240937608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_5</t>
+          <t>model_24_1_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998443575929804</v>
+        <v>0.9998606444317732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991178060401906</v>
+        <v>0.9990743183706647</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9996963083014493</v>
+        <v>0.9998245831265424</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998690428150048</v>
+        <v>0.9995539916652869</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997969717786667</v>
+        <v>0.9996671831781071</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001452853550407027</v>
+        <v>0.000130082305937229</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008234893376427414</v>
+        <v>0.0008640831682570167</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002473618295678098</v>
+        <v>0.0001349980964819783</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001295069106986202</v>
+        <v>0.0005830965804395231</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000188434370133215</v>
+        <v>0.0003590473384607507</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00143249817446872</v>
+        <v>0.00102034714859658</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01205343747819279</v>
+        <v>0.01140536303399541</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000219730456969</v>
+        <v>1.000196737272791</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01256657726569478</v>
+        <v>0.01189091295070887</v>
       </c>
       <c r="P8" t="n">
-        <v>99.67362156730724</v>
+        <v>99.89468637050436</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.6475303869035</v>
+        <v>149.8685951901006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_12</t>
+          <t>model_24_1_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999339038519225</v>
+        <v>0.9998570046571676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991131492680736</v>
+        <v>0.9990693906557846</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997266124421423</v>
+        <v>0.9998137902318239</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999554751926143</v>
+        <v>0.9995609444050084</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998563167512776</v>
+        <v>0.9996675479119675</v>
       </c>
       <c r="G9" t="n">
-        <v>6.169785294481963e-05</v>
+        <v>0.0001334798757639017</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008278362300053117</v>
+        <v>0.0008686829737959909</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002226786139214889</v>
+        <v>0.0001433041403294951</v>
       </c>
       <c r="J9" t="n">
-        <v>4.403172116276393e-05</v>
+        <v>0.0005740067979382408</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001333551675421264</v>
+        <v>0.0003586538585846922</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008410018305747122</v>
+        <v>0.001063141870528074</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007854798084280693</v>
+        <v>0.01155334911460316</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000093312209051</v>
+        <v>1.000201875778116</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008189193100402109</v>
+        <v>0.01204519910514151</v>
       </c>
       <c r="P9" t="n">
-        <v>101.3865228519191</v>
+        <v>99.8431196696569</v>
       </c>
       <c r="Q9" t="n">
-        <v>151.3604316715153</v>
+        <v>149.8170284892531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_13</t>
+          <t>model_24_1_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999937359410518</v>
+        <v>0.9998521692692097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991051800594898</v>
+        <v>0.9990631104868593</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997192323695551</v>
+        <v>0.9998013413627581</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999590239909502</v>
+        <v>0.9995674053384465</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998549715610252</v>
+        <v>0.999667026046176</v>
       </c>
       <c r="G10" t="n">
-        <v>5.847224067734994e-05</v>
+        <v>0.0001379934981736543</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000835275136410456</v>
+        <v>0.0008745452358201908</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002286898031184109</v>
+        <v>0.0001528845962691781</v>
       </c>
       <c r="J10" t="n">
-        <v>4.052222369465829e-05</v>
+        <v>0.0005655599867444572</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001346036643090197</v>
+        <v>0.0003592168545367538</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007982777006931334</v>
+        <v>0.001110586479220562</v>
       </c>
       <c r="M10" t="n">
-        <v>0.007646714371372186</v>
+        <v>0.01174706338510414</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000088433773386</v>
+        <v>1.000208702208174</v>
       </c>
       <c r="O10" t="n">
-        <v>0.007972250833042422</v>
+        <v>0.01224716019318153</v>
       </c>
       <c r="P10" t="n">
-        <v>101.4939168693636</v>
+        <v>99.77660797720134</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.4678256889599</v>
+        <v>149.7505167967976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_4</t>
+          <t>model_24_1_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998115949160747</v>
+        <v>0.9998458521727401</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999098959552164</v>
+        <v>0.9990551718139737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9996634432647652</v>
+        <v>0.9997869706381521</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998327692882801</v>
+        <v>0.9995731743790175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997632282534732</v>
+        <v>0.9996653908672768</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001758678758168824</v>
+        <v>0.0001438902304394542</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008410817069503057</v>
+        <v>0.0008819556384913876</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002741309366648339</v>
+        <v>0.0001639440823302576</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000165378729311941</v>
+        <v>0.0005580177334555391</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002197523803790068</v>
+        <v>0.0003609809078928983</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001590151841856852</v>
+        <v>0.001171000741151704</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0132615186090011</v>
+        <v>0.01199542539635232</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000265983647894</v>
+        <v>1.000217620462014</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01382608891131429</v>
+        <v>0.01250609548942879</v>
       </c>
       <c r="P11" t="n">
-        <v>99.29155510086511</v>
+        <v>99.69291967538575</v>
       </c>
       <c r="Q11" t="n">
-        <v>149.2654639204613</v>
+        <v>149.666828494982</v>
       </c>
     </row>
     <row r="12">
@@ -1072,657 +1072,657 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999398365730719</v>
+        <v>0.9998376919881202</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990968829996325</v>
+        <v>0.9990452049845051</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9997110246421584</v>
+        <v>0.9997704151965717</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999961888496125</v>
+        <v>0.999577859277927</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998528935716569</v>
+        <v>0.9996623245694731</v>
       </c>
       <c r="G12" t="n">
-        <v>5.615991816806204e-05</v>
+        <v>0.0001515074045914513</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008430200775883416</v>
+        <v>0.000891259236307094</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002353751306236333</v>
+        <v>0.0001766848925825137</v>
       </c>
       <c r="J12" t="n">
-        <v>3.768944124076835e-05</v>
+        <v>0.0005518928512029205</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001365322859322008</v>
+        <v>0.0003642888718927171</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007631659401226276</v>
+        <v>0.001245514699662105</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007493992138243945</v>
+        <v>0.01230883441238249</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000084936602722</v>
+        <v>1.000229140722654</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007813026898271304</v>
+        <v>0.01283284697611746</v>
       </c>
       <c r="P12" t="n">
-        <v>101.5746145107384</v>
+        <v>99.58975211803622</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.5485233303346</v>
+        <v>149.5636609376324</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_15</t>
+          <t>model_24_1_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999415878021607</v>
+        <v>0.9998271929362335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990885993061237</v>
+        <v>0.999032635437358</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997025490621529</v>
+        <v>0.9997511653823891</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999642415587791</v>
+        <v>0.999580878017601</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998504281046973</v>
+        <v>0.9996572876677817</v>
       </c>
       <c r="G13" t="n">
-        <v>5.452522268388611e-05</v>
+        <v>0.000161307808672619</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008507525418666917</v>
+        <v>0.0009029923568295952</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002422786284367708</v>
+        <v>0.0001914992500674551</v>
       </c>
       <c r="J13" t="n">
-        <v>3.536243738049601e-05</v>
+        <v>0.0005479462505585955</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001388205329086335</v>
+        <v>0.0003697227503130253</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007338979547272564</v>
+        <v>0.001328134691715538</v>
       </c>
       <c r="M13" t="n">
-        <v>0.007384119628221506</v>
+        <v>0.01270070110949073</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000082464279302</v>
+        <v>1.000243962913553</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00769847688802976</v>
+        <v>0.01324139624979749</v>
       </c>
       <c r="P13" t="n">
-        <v>101.633694323631</v>
+        <v>99.46439232627858</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.6076031432272</v>
+        <v>149.4383011458748</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_16</t>
+          <t>model_24_1_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999427903592912</v>
+        <v>0.9998137273588134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990804780819703</v>
+        <v>0.9990169196637796</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9996940995196446</v>
+        <v>0.9997288815842215</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999661797616356</v>
+        <v>0.999581281185058</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998477530431381</v>
+        <v>0.9996495837533241</v>
       </c>
       <c r="G14" t="n">
-        <v>5.340268838864605e-05</v>
+        <v>0.0001738773341238241</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008583333481333922</v>
+        <v>0.0009176623416222451</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002491609182848026</v>
+        <v>0.0002086485144211602</v>
       </c>
       <c r="J14" t="n">
-        <v>3.344569898795054e-05</v>
+        <v>0.0005474191627281634</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001413033086363766</v>
+        <v>0.0003780338385746618</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007075174385618036</v>
+        <v>0.001419745484713277</v>
       </c>
       <c r="M14" t="n">
-        <v>0.007307714306720402</v>
+        <v>0.01318625550047564</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000080766551589</v>
+        <v>1.000262973140499</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007618818833811535</v>
+        <v>0.01374762169644279</v>
       </c>
       <c r="P14" t="n">
-        <v>101.6752989378174</v>
+        <v>99.31432096732451</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.6492077574136</v>
+        <v>149.2882297869207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_17</t>
+          <t>model_24_1_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999943547542975</v>
+        <v>0.9997966530384118</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990725940739625</v>
+        <v>0.9989973237996703</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9996856571413721</v>
+        <v>0.999703018323854</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999678025544632</v>
+        <v>0.9995785320928614</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998449130880537</v>
+        <v>0.9996386946485987</v>
       </c>
       <c r="G15" t="n">
-        <v>5.269589065634374e-05</v>
+        <v>0.0001898154627425979</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008656927235407198</v>
+        <v>0.0009359542206092222</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002560373727461772</v>
+        <v>0.0002285524771905106</v>
       </c>
       <c r="J15" t="n">
-        <v>3.184087764274671e-05</v>
+        <v>0.0005510132351576677</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001439391251944619</v>
+        <v>0.0003897811536522616</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006837233467557975</v>
+        <v>0.001521179889523938</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00725919352658019</v>
+        <v>0.013777353256072</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000079697586388</v>
+        <v>1.000287078063419</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007568232423608892</v>
+        <v>0.01436388370723593</v>
       </c>
       <c r="P15" t="n">
-        <v>101.7019461632354</v>
+        <v>99.13891641298925</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.6758549828317</v>
+        <v>149.1128252325855</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_3</t>
+          <t>model_24_1_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9997691382995635</v>
+        <v>0.9997750357075836</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990698097025286</v>
+        <v>0.9989729122936833</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9996167197249725</v>
+        <v>0.9996729869925857</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997823629065192</v>
+        <v>0.9995712842924999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997158689495427</v>
+        <v>0.9996235898227364</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002154992637000703</v>
+        <v>0.0002099942921795088</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008682918120544706</v>
+        <v>0.0009587412899068618</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003121880200232634</v>
+        <v>0.0002516641224738033</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002152268898507871</v>
+        <v>0.0005604887702039497</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002637074549370252</v>
+        <v>0.0004060764463388765</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001770761658857335</v>
+        <v>0.001633529678368482</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01467989317740665</v>
+        <v>0.01449117980633422</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000325922400616</v>
+        <v>1.000317596648117</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01530484662153698</v>
+        <v>0.01510809933156747</v>
       </c>
       <c r="P16" t="n">
-        <v>98.88510613026264</v>
+        <v>98.93686041542753</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.8590149498589</v>
+        <v>148.9107692350238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_18</t>
+          <t>model_24_1_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999439870555081</v>
+        <v>0.9997477697509317</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990650625745063</v>
+        <v>0.9989424562705116</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9996775080782161</v>
+        <v>0.999637757505076</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999691598847962</v>
+        <v>0.9995581899123841</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998420604122322</v>
+        <v>0.9996030898851611</v>
       </c>
       <c r="G17" t="n">
-        <v>5.228562499902904e-05</v>
+        <v>0.0002354458658768988</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008727230476884359</v>
+        <v>0.0009871706506728191</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002626749172729436</v>
+        <v>0.0002787761879216512</v>
       </c>
       <c r="J17" t="n">
-        <v>3.049857894995913e-05</v>
+        <v>0.000577607930708876</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001465867481114514</v>
+        <v>0.0004281920593152636</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006621964085674045</v>
+        <v>0.00175802933211215</v>
       </c>
       <c r="M17" t="n">
-        <v>0.007230879960214319</v>
+        <v>0.01534424536681094</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000079077098106</v>
+        <v>1.000356089763391</v>
       </c>
       <c r="O17" t="n">
-        <v>0.007538713490105664</v>
+        <v>0.01599748165904283</v>
       </c>
       <c r="P17" t="n">
-        <v>101.717578162577</v>
+        <v>98.70805907963921</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.6914869821733</v>
+        <v>148.6819678992354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_19</t>
+          <t>model_24_1_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999441643988587</v>
+        <v>0.999713533658977</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990578792076457</v>
+        <v>0.9989046709973948</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9996695904595083</v>
+        <v>0.9995967260338241</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999703036308045</v>
+        <v>0.999537368013092</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998391955053652</v>
+        <v>0.999575838169981</v>
       </c>
       <c r="G18" t="n">
-        <v>5.212008276583089e-05</v>
+        <v>0.0002674037549259485</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000879428405339521</v>
+        <v>0.001022441544545483</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002691239465309915</v>
+        <v>0.0003103533697838104</v>
       </c>
       <c r="J18" t="n">
-        <v>2.936749926027566e-05</v>
+        <v>0.0006048297948098775</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001492457228956336</v>
+        <v>0.0004575915822968439</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006427856944187025</v>
+        <v>0.001895769565723901</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007219423991277343</v>
+        <v>0.0163524846713259</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000078826731023</v>
+        <v>1.00040442306968</v>
       </c>
       <c r="O18" t="n">
-        <v>0.007526769816853916</v>
+        <v>0.01704864379809408</v>
       </c>
       <c r="P18" t="n">
-        <v>101.7239204354458</v>
+        <v>98.4535017020784</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.697829255042</v>
+        <v>148.4274105216746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_20</t>
+          <t>model_24_1_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999441810716778</v>
+        <v>0.9996706051010049</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990511971008212</v>
+        <v>0.9988578642462036</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999662202523075</v>
+        <v>0.9995488556855088</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999712717862019</v>
+        <v>0.9995063705026981</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998364694754928</v>
+        <v>0.9995399814695156</v>
       </c>
       <c r="G19" t="n">
-        <v>5.210451942100335e-05</v>
+        <v>0.0003074756794469148</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008856658587495365</v>
+        <v>0.001066133592203529</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002751415409584634</v>
+        <v>0.0003471936450271146</v>
       </c>
       <c r="J19" t="n">
-        <v>2.84100656181687e-05</v>
+        <v>0.0006453549171137549</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000151775803288316</v>
+        <v>0.0004962742810704348</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006252147506005252</v>
+        <v>0.002048264208679336</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00721834603084414</v>
+        <v>0.01753498444387433</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000078803192926</v>
+        <v>1.000465028092699</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007525645965413386</v>
+        <v>0.01828148503407188</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7245177356845</v>
+        <v>98.17422913015025</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.6984265552808</v>
+        <v>148.1481379497465</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_21</t>
+          <t>model_24_1_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999440708657789</v>
+        <v>0.9996169472221946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990449645252921</v>
+        <v>0.9987999529149755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996552928687074</v>
+        <v>0.9994929402146598</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999720885437431</v>
+        <v>0.9994622932916611</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998338726571142</v>
+        <v>0.999493329869648</v>
       </c>
       <c r="G20" t="n">
-        <v>5.220739179017404e-05</v>
+        <v>0.0003575629540076477</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008914836944274961</v>
+        <v>0.001120191277891328</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00028076956686182</v>
+        <v>0.0003902253213972916</v>
       </c>
       <c r="J20" t="n">
-        <v>2.760235318941764e-05</v>
+        <v>0.0007029800084644092</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001541859600256188</v>
+        <v>0.0005466026649308504</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0006093148532803834</v>
+        <v>0.002216961105046909</v>
       </c>
       <c r="M20" t="n">
-        <v>0.007225468274802267</v>
+        <v>0.01890933510220938</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000078958777724</v>
+        <v>1.000540780392196</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007533071418041887</v>
+        <v>0.01971434464523032</v>
       </c>
       <c r="P20" t="n">
-        <v>101.72057293585</v>
+        <v>97.8723982324137</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.6944817554462</v>
+        <v>147.8463070520099</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_22</t>
+          <t>model_24_1_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999438611739329</v>
+        <v>0.9995499505750302</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990391648168512</v>
+        <v>0.9987281212654755</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9996487842349258</v>
+        <v>0.9994270764458683</v>
       </c>
       <c r="E21" t="n">
-        <v>0.99997278147973</v>
+        <v>0.9994015765362414</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999831385839429</v>
+        <v>0.999433047534786</v>
       </c>
       <c r="G21" t="n">
-        <v>5.24031299240199e-05</v>
+        <v>0.0004201013833227972</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008968974676793445</v>
+        <v>0.001187242969654581</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002860709549731141</v>
+        <v>0.0004409130530775229</v>
       </c>
       <c r="J21" t="n">
-        <v>2.691709106367474e-05</v>
+        <v>0.0007823590911073574</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001564940230183944</v>
+        <v>0.0006116360720924401</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005949643788837045</v>
+        <v>0.002403830168473687</v>
       </c>
       <c r="M21" t="n">
-        <v>0.007239000616384827</v>
+        <v>0.02049637488247122</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000079254813271</v>
+        <v>1.000635363894075</v>
       </c>
       <c r="O21" t="n">
-        <v>0.007547179859421426</v>
+        <v>0.02136894799456316</v>
       </c>
       <c r="P21" t="n">
-        <v>101.7130884740934</v>
+        <v>97.55002897390533</v>
       </c>
       <c r="Q21" t="n">
-        <v>151.6869972936896</v>
+        <v>147.5239377935015</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_23</t>
+          <t>model_24_1_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999435924500638</v>
+        <v>0.9994664641378378</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990338011841458</v>
+        <v>0.9986393203360562</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9996427755888639</v>
+        <v>0.9993495647852997</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999733685648529</v>
+        <v>0.9993193885112579</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998290620231868</v>
+        <v>0.9993556005743107</v>
       </c>
       <c r="G22" t="n">
-        <v>5.26539718601662e-05</v>
+        <v>0.0004980323078107817</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009019041833736007</v>
+        <v>0.001270134739357221</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002909650949518155</v>
+        <v>0.0005005648210384298</v>
       </c>
       <c r="J22" t="n">
-        <v>2.633650756543705e-05</v>
+        <v>0.0008898090031179556</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001586508012586263</v>
+        <v>0.0006951869120781928</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005819835152962696</v>
+        <v>0.002610583454004751</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007256305661985733</v>
+        <v>0.02231663746649082</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000079634188145</v>
+        <v>1.000753227099523</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007565221616639945</v>
+        <v>0.02326670292524747</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7035377665803</v>
+        <v>97.20969121584373</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.6774465861765</v>
+        <v>147.18360003544</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_1_24</t>
+          <t>model_24_1_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999432792384358</v>
+        <v>0.9993623561245115</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990288375976282</v>
+        <v>0.9985292907693812</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9996371873371119</v>
+        <v>0.9992573516173759</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999738691938458</v>
+        <v>0.9992097593591807</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999826876615542</v>
+        <v>0.9992562825175704</v>
       </c>
       <c r="G23" t="n">
-        <v>5.294634116644848e-05</v>
+        <v>0.000595212568437212</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009065374735115131</v>
+        <v>0.001372842510108459</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002955168169253007</v>
+        <v>0.0005715306403174043</v>
       </c>
       <c r="J23" t="n">
-        <v>2.584142274612174e-05</v>
+        <v>0.001033134539251366</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001606791198357112</v>
+        <v>0.0008023325897843852</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005702461251146591</v>
+        <v>0.002840102799096393</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007276423652210506</v>
+        <v>0.02439697867436073</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000080076369267</v>
+        <v>1.000900203118337</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007586196071358568</v>
+        <v>0.02543560856523637</v>
       </c>
       <c r="P23" t="n">
-        <v>101.6924631761763</v>
+        <v>96.85318391668476</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.6663719957725</v>
+        <v>146.827092736281</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9997144415794953</v>
+        <v>0.9992327089470728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990272205073318</v>
+        <v>0.998392921095638</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9995525411202359</v>
+        <v>0.9991467468765105</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997125304547007</v>
+        <v>0.9990656233065962</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9996505036230854</v>
+        <v>0.9991294972719701</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002665562509751274</v>
+        <v>0.00071623251772285</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009080469563210941</v>
+        <v>0.001500137614610911</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003644625377743251</v>
+        <v>0.0006566503279758296</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002842859880732823</v>
+        <v>0.001221573258528143</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003243742629238037</v>
+        <v>0.0009391102464242831</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001976434754123275</v>
+        <v>0.003095029203449475</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01632655049222363</v>
+        <v>0.0267625207654819</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000403141299536</v>
+        <v>1.001083234427662</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01702160554729627</v>
+        <v>0.02790185668052378</v>
       </c>
       <c r="P24" t="n">
-        <v>98.45985052710752</v>
+        <v>96.48301139659807</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.4337593467038</v>
+        <v>146.4569202161943</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9996449163967744</v>
+        <v>0.9990712542196588</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989682794678323</v>
+        <v>0.9982239171537943</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9994681766265845</v>
+        <v>0.9990135777470925</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9996174709721308</v>
+        <v>0.9988776435370679</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9995628375131619</v>
+        <v>0.9989680947331696</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0003314549572422586</v>
+        <v>0.0008669434187203525</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009630658294812902</v>
+        <v>0.00165789537590636</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000433178790473257</v>
+        <v>0.0007591352179823984</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000378292742423495</v>
+        <v>0.001467331806682302</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004057388539987453</v>
+        <v>0.001113233512332351</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002207658136114067</v>
+        <v>0.003378647768331584</v>
       </c>
       <c r="M25" t="n">
-        <v>0.018205904460978</v>
+        <v>0.02944390291249366</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000501294498671</v>
+        <v>1.001311170513423</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01898096750529955</v>
+        <v>0.03069739081676006</v>
       </c>
       <c r="P25" t="n">
-        <v>98.02403726631849</v>
+        <v>96.10107368860969</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.9979460859147</v>
+        <v>146.0749825082059</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9995581235530711</v>
+        <v>0.9988701606422513</v>
       </c>
       <c r="C26" t="n">
-        <v>0.998890436638296</v>
+        <v>0.9980142058234357</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9993598528519104</v>
+        <v>0.9988509784838384</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9994920697752615</v>
+        <v>0.9986348428190795</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9994484999493612</v>
+        <v>0.9987629789096498</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0004124722670738065</v>
+        <v>0.001054655446242435</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001035728693948036</v>
+        <v>0.001853651697532657</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0005214102673853334</v>
+        <v>0.0008842690810824697</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000502305194317982</v>
+        <v>0.001784761453996748</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005118577308516577</v>
+        <v>0.001334515267539609</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002463434801612665</v>
+        <v>0.003695099284387888</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0203094132626673</v>
+        <v>0.03247545913828526</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000623825572135</v>
+        <v>1.001595067328586</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02117402703154028</v>
+        <v>0.03385800666727012</v>
       </c>
       <c r="P26" t="n">
-        <v>97.58668317157179</v>
+        <v>95.70908231327208</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.560591991168</v>
+        <v>145.6829911328683</v>
       </c>
     </row>
   </sheetData>
